--- a/controller/countries.xlsx
+++ b/controller/countries.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>Order ID</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>{"name":"rolf","mobile":9747561989,"homeAddress":"clerus house adimalathura chowara p.o","city":"ATHIYANNUR","postalCode":695501}</t>
+  </si>
+  <si>
+    <t>148251</t>
+  </si>
+  <si>
+    <t>955741</t>
   </si>
 </sst>
 </file>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K34"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="30" style="1" customWidth="1"/>
@@ -555,96 +561,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1750</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5250</v>
-      </c>
-      <c r="H16" s="3">
-        <v>45230.37326881944</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>9000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>45230.37413140046</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>16000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>45230.48288606481</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -653,13 +572,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G19" s="1">
-        <v>7000</v>
+        <v>5250</v>
       </c>
       <c r="H19" s="3">
-        <v>45230.48312577546</v>
+        <v>45230.37326881944</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>13</v>
@@ -673,109 +592,109 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="H20" s="3">
-        <v>45230.51429846065</v>
+        <v>45230.37413140046</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="H21" s="3">
-        <v>45230.51480040509</v>
+        <v>45230.48288606481</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="H22" s="3">
-        <v>45230.51493697916</v>
+        <v>45230.48312577546</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F23" s="1">
-        <v>1750</v>
+        <v>3500</v>
       </c>
       <c r="G23" s="1">
-        <v>5250</v>
+        <v>10500</v>
       </c>
       <c r="H23" s="3">
-        <v>45230.517359826394</v>
+        <v>45230.51429846065</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>13</v>
@@ -789,54 +708,54 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1">
-        <v>1875</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>5625</v>
+        <v>7500</v>
       </c>
       <c r="H24" s="3">
-        <v>45230.526474178245</v>
+        <v>45230.51480040509</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="H25" s="3">
-        <v>45230.527110069444</v>
+        <v>45230.51493697916</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>28</v>
@@ -847,22 +766,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G26" s="1">
-        <v>7000</v>
+        <v>5250</v>
       </c>
       <c r="H26" s="3">
-        <v>45230.545366770835</v>
+        <v>45230.517359826394</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>13</v>
@@ -876,7 +795,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -885,71 +804,71 @@
         <v>12</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>1875</v>
       </c>
       <c r="G27" s="1">
-        <v>7000</v>
+        <v>5625</v>
       </c>
       <c r="H27" s="3">
-        <v>45230.556492442134</v>
+        <v>45230.526474178245</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>6750</v>
+        <v>9000</v>
       </c>
       <c r="H28" s="3">
-        <v>45230.56057988426</v>
+        <v>45230.527110069444</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1">
-        <v>1875</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>5625</v>
+        <v>7000</v>
       </c>
       <c r="H29" s="3">
-        <v>45230.575472627315</v>
+        <v>45230.545366770835</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>13</v>
@@ -958,6 +877,151 @@
         <v>14</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7000</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45230.556492442134</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2250</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6750</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45230.56057988426</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1875</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5625</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45230.575472627315</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>14000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45231.41486247686</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>7500</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45231.41499884259</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
